--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -110,7 +110,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -237,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,7 +261,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,19 +277,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,23 +297,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,23 +394,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="AC53" activeCellId="0" sqref="AC53"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="AG17" activeCellId="0" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="22" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="28" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="28" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="32" style="0" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +502,10 @@
       <c r="AC1" s="0" t="n">
         <v>8.04</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="0" t="n">
+        <v>9.04</v>
+      </c>
+      <c r="AE1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -611,12 +594,15 @@
       <c r="AB2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7" t="n">
-        <f aca="false">SUM(C2:AC2)</f>
-        <v>119</v>
+      <c r="AC2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="7" t="n">
+        <f aca="false">SUM(C2:AD2)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,104 +690,110 @@
       <c r="AB3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="n">
-        <v>0</v>
+      <c r="AC3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <f aca="false">SUM(C3:AC3)</f>
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <f aca="false">SUM(C3:AD3)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="13" t="n">
-        <f aca="false">SUM(C4:AC4)</f>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <f aca="false">SUM(C4:AD4)</f>
         <v>0</v>
       </c>
     </row>
@@ -812,90 +804,93 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15" t="n">
+      <c r="C5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="H5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="15" t="n">
+      <c r="H5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="n">
+      <c r="K5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="15" t="n">
+      <c r="M5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="O5" s="15" t="n">
+      <c r="O5" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q5" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="S5" s="15" t="n">
+      <c r="S5" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="T5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="15" t="n">
+      <c r="T5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="V5" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="W5" s="15" t="n">
+      <c r="V5" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="X5" s="15" t="n">
+      <c r="X5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Y5" s="15" t="n">
+      <c r="Y5" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="Z5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15" t="n">
+      <c r="Z5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AB5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7" t="n">
-        <f aca="false">SUM(C5:AC5)</f>
-        <v>222</v>
+      <c r="AB5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <f aca="false">SUM(C5:AD5)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,109 +978,115 @@
       <c r="AB6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AC6" s="10" t="n">
-        <v>0</v>
+      <c r="AC6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <f aca="false">SUM(C6:AC6)</f>
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <f aca="false">SUM(C6:AD6)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="13" t="n">
-        <f aca="false">SUM(C7:AC7)</f>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <f aca="false">SUM(C7:AD7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1169,12 +1170,15 @@
       <c r="AB8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AC8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7" t="n">
-        <f aca="false">SUM(C8:AC8)</f>
-        <v>55</v>
+      <c r="AC8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <f aca="false">SUM(C8:AD8)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,104 +1266,110 @@
       <c r="AB9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <f aca="false">SUM(C9:AC9)</f>
+      <c r="AC9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <f aca="false">SUM(C9:AD9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="13" t="n">
-        <f aca="false">SUM(C10:AC10)</f>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <f aca="false">SUM(C10:AD10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1448,11 +1458,14 @@
       <c r="AB11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7" t="n">
-        <f aca="false">SUM(C11:AC11)</f>
+      <c r="AC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7" t="n">
+        <f aca="false">SUM(C11:AD11)</f>
         <v>10</v>
       </c>
     </row>
@@ -1541,104 +1554,110 @@
       <c r="AB12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <f aca="false">SUM(C12:AC12)</f>
+      <c r="AC12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <f aca="false">SUM(C12:AD12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <f aca="false">SUM(C13:AC13)</f>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <f aca="false">SUM(C13:AD13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1727,11 +1746,14 @@
       <c r="AB14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7" t="n">
-        <f aca="false">SUM(C14:AC14)</f>
+      <c r="AC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7" t="n">
+        <f aca="false">SUM(C14:AD14)</f>
         <v>11</v>
       </c>
     </row>
@@ -1820,104 +1842,110 @@
       <c r="AB15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <f aca="false">SUM(C15:AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <f aca="false">SUM(C15:AD15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="13" t="n">
-        <f aca="false">SUM(C16:AC16)</f>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="12" t="n">
+        <f aca="false">SUM(C16:AD16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2034,15 @@
       <c r="AB17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AC17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7" t="n">
-        <f aca="false">SUM(C17:AC17)</f>
-        <v>20</v>
+      <c r="AC17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="7" t="n">
+        <f aca="false">SUM(C17:AD17)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,104 +2130,110 @@
       <c r="AB18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <f aca="false">SUM(C18:AC18)</f>
+      <c r="AC18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <f aca="false">SUM(C18:AD18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13" t="n">
-        <f aca="false">SUM(C19:AC19)</f>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <f aca="false">SUM(C19:AD19)</f>
         <v>1</v>
       </c>
     </row>
@@ -2285,11 +2322,14 @@
       <c r="AB20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AC20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7" t="n">
-        <f aca="false">SUM(C20:AC20)</f>
+      <c r="AC20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7" t="n">
+        <f aca="false">SUM(C20:AD20)</f>
         <v>45</v>
       </c>
     </row>
@@ -2378,104 +2418,110 @@
       <c r="AB21" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AC21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <f aca="false">SUM(C21:AC21)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <f aca="false">SUM(C21:AD21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="13" t="n">
-        <f aca="false">SUM(C22:AC22)</f>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="12" t="n">
+        <f aca="false">SUM(C22:AD22)</f>
         <v>0</v>
       </c>
     </row>
@@ -2564,11 +2610,14 @@
       <c r="AB23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7" t="n">
-        <f aca="false">SUM(C23:AC23)</f>
+      <c r="AC23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7" t="n">
+        <f aca="false">SUM(C23:AD23)</f>
         <v>25</v>
       </c>
     </row>
@@ -2657,104 +2706,110 @@
       <c r="AB24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" s="10" t="n">
+      <c r="AC24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <f aca="false">SUM(C24:AC24)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <f aca="false">SUM(C24:AD24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="13" t="n">
-        <f aca="false">SUM(C25:AC25)</f>
+      <c r="C25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="12" t="n">
+        <f aca="false">SUM(C25:AD25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2844,11 +2899,14 @@
         <v>0</v>
       </c>
       <c r="AC26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="7" t="n">
-        <f aca="false">SUM(C26:AC26)</f>
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE26" s="7" t="n">
+        <f aca="false">SUM(C26:AD26)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,105 +2994,111 @@
       <c r="AB27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <f aca="false">SUM(C27:AC27)</f>
+      <c r="AC27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <f aca="false">SUM(C27:AD27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="13" t="n">
-        <f aca="false">SUM(C28:AC28)</f>
-        <v>2</v>
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="12" t="n">
+        <f aca="false">SUM(C28:AD28)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,12 +3186,15 @@
       <c r="AB29" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AC29" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7" t="n">
-        <f aca="false">SUM(C29:AC29)</f>
-        <v>32</v>
+      <c r="AC29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" s="7" t="n">
+        <f aca="false">SUM(C29:AD29)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,104 +3282,110 @@
       <c r="AB30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD30" s="0" t="n">
-        <f aca="false">SUM(C30:AC30)</f>
+      <c r="AC30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <f aca="false">SUM(C30:AD30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD31" s="13" t="n">
-        <f aca="false">SUM(C31:AC31)</f>
+      <c r="C31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="12" t="n">
+        <f aca="false">SUM(C31:AD31)</f>
         <v>0</v>
       </c>
     </row>
@@ -3401,12 +3474,15 @@
       <c r="AB32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7" t="n">
-        <f aca="false">SUM(C32:AC32)</f>
-        <v>1</v>
+      <c r="AC32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="7" t="n">
+        <f aca="false">SUM(C32:AD32)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,105 +3570,111 @@
       <c r="AB33" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC33" s="10" t="s">
+      <c r="AC33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <f aca="false">SUM(C33:AC33)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <f aca="false">SUM(C33:AD33)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="13" t="n">
-        <f aca="false">SUM(C34:AC34)</f>
-        <v>0</v>
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="12" t="n">
+        <f aca="false">SUM(C34:AD34)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,11 +3763,14 @@
         <v>0</v>
       </c>
       <c r="AC35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="7" t="n">
-        <f aca="false">SUM(C35:AC35)</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AD35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <f aca="false">SUM(C35:AD35)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,104 +3858,110 @@
       <c r="AB36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <f aca="false">SUM(C36:AC36)</f>
+      <c r="AC36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <f aca="false">SUM(C36:AD36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD37" s="13" t="n">
-        <f aca="false">SUM(C37:AC37)</f>
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="12" t="n">
+        <f aca="false">SUM(C37:AD37)</f>
         <v>0</v>
       </c>
     </row>
@@ -3959,11 +4050,14 @@
       <c r="AB38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="7" t="n">
-        <f aca="false">SUM(C38:AC38)</f>
+      <c r="AC38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7" t="n">
+        <f aca="false">SUM(C38:AD38)</f>
         <v>6</v>
       </c>
     </row>
@@ -4052,104 +4146,110 @@
       <c r="AB39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="0" t="n">
-        <f aca="false">SUM(C39:AC39)</f>
+      <c r="AC39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <f aca="false">SUM(C39:AD39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD40" s="13" t="n">
-        <f aca="false">SUM(C40:AC40)</f>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="12" t="n">
+        <f aca="false">SUM(C40:AD40)</f>
         <v>0</v>
       </c>
     </row>
@@ -4238,12 +4338,15 @@
       <c r="AB41" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC41" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="7" t="n">
-        <f aca="false">SUM(C41:AC41)</f>
-        <v>66</v>
+      <c r="AC41" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD41" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE41" s="7" t="n">
+        <f aca="false">SUM(C41:AD41)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,104 +4434,110 @@
       <c r="AB42" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD42" s="0" t="n">
-        <f aca="false">SUM(C42:AC42)</f>
+      <c r="AC42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <f aca="false">SUM(C42:AD42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC43" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD43" s="13" t="n">
-        <f aca="false">SUM(C43:AC43)</f>
+      <c r="C43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE43" s="12" t="n">
+        <f aca="false">SUM(C43:AD43)</f>
         <v>0</v>
       </c>
     </row>
@@ -4517,12 +4626,15 @@
       <c r="AB44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AC44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="7" t="n">
-        <f aca="false">SUM(C44:AC44)</f>
+      <c r="AC44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="6" t="n">
         <v>2</v>
+      </c>
+      <c r="AE44" s="7" t="n">
+        <f aca="false">SUM(C44:AD44)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,104 +4722,110 @@
       <c r="AB45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD45" s="0" t="n">
-        <f aca="false">SUM(C45:AC45)</f>
+      <c r="AC45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE45" s="0" t="n">
+        <f aca="false">SUM(C45:AD45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC46" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD46" s="13" t="n">
-        <f aca="false">SUM(C46:AC46)</f>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE46" s="12" t="n">
+        <f aca="false">SUM(C46:AD46)</f>
         <v>0</v>
       </c>
     </row>
@@ -4797,11 +4915,14 @@
         <v>0</v>
       </c>
       <c r="AC47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="7" t="n">
-        <f aca="false">SUM(C47:AC47)</f>
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="AD47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="7" t="n">
+        <f aca="false">SUM(C47:AD47)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,104 +5010,110 @@
       <c r="AB48" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD48" s="0" t="n">
-        <f aca="false">SUM(C48:AC48)</f>
+      <c r="AC48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <f aca="false">SUM(C48:AD48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="13" t="n">
-        <f aca="false">SUM(C49:AC49)</f>
+      <c r="C49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12" t="n">
+        <f aca="false">SUM(C49:AD49)</f>
         <v>1</v>
       </c>
     </row>
@@ -5075,11 +5202,14 @@
       <c r="AB50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AC50" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="7" t="n">
-        <f aca="false">SUM(C50:AC50)</f>
+      <c r="AC50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="7" t="n">
+        <f aca="false">SUM(C50:AD50)</f>
         <v>3</v>
       </c>
     </row>
@@ -5168,104 +5298,110 @@
       <c r="AB51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AC51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD51" s="0" t="n">
-        <f aca="false">SUM(C51:AC51)</f>
+      <c r="AC51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE51" s="0" t="n">
+        <f aca="false">SUM(C51:AD51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC52" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD52" s="13" t="n">
-        <f aca="false">SUM(C52:AC52)</f>
+      <c r="C52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE52" s="12" t="n">
+        <f aca="false">SUM(C52:AD52)</f>
         <v>0</v>
       </c>
     </row>
@@ -5376,17 +5512,21 @@
         <f aca="false">SUM(AA2,AA5,AA8,AA11,AA14,AA17,AA20,AA23,AA26,AA29,AA32,AA35,AA38,,AA41,AA44,AA47,AA50)</f>
         <v>78</v>
       </c>
-      <c r="AB53" s="24" t="n">
+      <c r="AB53" s="19" t="n">
         <f aca="false">SUM(AB2,AB5,AB8,AB11,AB14,AB17,AB20,AB23,AB26,AB29,AB32,AB35,AB38,,AB41,AB44,AB47,AB50)</f>
         <v>35</v>
       </c>
-      <c r="AC53" s="7" t="n">
+      <c r="AC53" s="19" t="n">
         <f aca="false">SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,,AC41,AC44,AC47,AC50)</f>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD53" s="19" t="n">
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
-        <v>697</v>
+        <v>54</v>
+      </c>
+      <c r="AE53" s="7" t="n">
+        <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
+        <v>781</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,118 +5629,126 @@
       </c>
       <c r="AC54" s="0" t="n">
         <f aca="false">SUM(AC3,AC6,AC9,AC12,AC15,AC18,AC21,AC24,AC27,AC30,AC33,AC36,AC39,,AC42,AC45,AC48,AC51)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD54" s="0" t="n">
         <f aca="false">SUM(AD3,AD6,AD9,AD12,AD15,AD18,AD21,AD24,AD27,AD30,AD33,AD36,AD39,,AD42,AD45,AD48,AD51)</f>
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="AE54" s="0" t="n">
+        <f aca="false">SUM(AE3,AE6,AE9,AE12,AE15,AE18,AE21,AE24,AE27,AE30,AE33,AE36,AE39,,AE42,AE45,AE48,AE51)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P55" s="13" t="n">
+      <c r="C55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="12" t="n">
         <f aca="false">SUM(P4,P7,P10,P13,P16,P19,P22,P25,P28,P31,P34,P37,P40,,P43,P46,P49,P52)</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="13" t="n">
+      <c r="Q55" s="12" t="n">
         <f aca="false">SUM(Q4,Q7,Q10,Q13,Q16,Q19,Q22,Q25,Q28,Q31,Q34,Q37,Q40,,Q43,Q46,Q49,Q52)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="13" t="n">
+      <c r="R55" s="12" t="n">
         <f aca="false">SUM(R4,R7,R10,R13,R16,R19,R22,R25,R28,R31,R34,R37,R40,,R43,R46,R49,R52)</f>
         <v>0</v>
       </c>
-      <c r="S55" s="13" t="n">
+      <c r="S55" s="12" t="n">
         <f aca="false">SUM(S4,S7,S10,S13,S16,S19,S22,S25,S28,S31,S34,S37,S40,,S43,S46,S49,S52)</f>
         <v>0</v>
       </c>
-      <c r="T55" s="13" t="n">
+      <c r="T55" s="12" t="n">
         <f aca="false">SUM(T4,T7,T10,T13,T16,T19,T22,T25,T28,T31,T34,T37,T40,,T43,T46,T49,T52)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="13" t="n">
+      <c r="U55" s="12" t="n">
         <f aca="false">SUM(U4,U7,U10,U13,U16,U19,U22,U25,U28,U31,U34,U37,U40,,U43,U46,U49,U52)</f>
         <v>1</v>
       </c>
-      <c r="V55" s="13" t="n">
+      <c r="V55" s="12" t="n">
         <f aca="false">SUM(V4,V7,V10,V13,V16,V19,V22,V25,V28,V31,V34,V37,V40,,V43,V46,V49,V52)</f>
         <v>1</v>
       </c>
-      <c r="W55" s="13" t="n">
+      <c r="W55" s="12" t="n">
         <f aca="false">SUM(W4,W7,W10,W13,W16,W19,W22,W25,W28,W31,W34,W37,W40,,W43,W46,W49,W52)</f>
         <v>0</v>
       </c>
-      <c r="X55" s="13" t="n">
+      <c r="X55" s="12" t="n">
         <f aca="false">SUM(X4,X7,X10,X13,X16,X19,X22,X25,X28,X31,X34,X37,X40,,X43,X46,X49,X52)</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="13" t="n">
+      <c r="Y55" s="12" t="n">
         <f aca="false">SUM(Y4,Y7,Y10,Y13,Y16,Y19,Y22,Y25,Y28,Y31,Y34,Y37,Y40,,Y43,Y46,Y49,Y52)</f>
         <v>2</v>
       </c>
-      <c r="Z55" s="13" t="n">
+      <c r="Z55" s="12" t="n">
         <f aca="false">SUM(Z4,Z7,Z10,Z13,Z16,Z19,Z22,Z25,Z28,Z31,Z34,Z37,Z40,,Z43,Z46,Z49,Z52)</f>
         <v>1</v>
       </c>
-      <c r="AA55" s="13" t="n">
+      <c r="AA55" s="12" t="n">
         <f aca="false">SUM(AA4,AA7,AA10,AA13,AA16,AA19,AA22,AA25,AA28,AA31,AA34,AA37,AA40,,AA43,AA46,AA49,AA52)</f>
         <v>0</v>
       </c>
-      <c r="AB55" s="13" t="n">
+      <c r="AB55" s="12" t="n">
         <f aca="false">SUM(AB4,AB7,AB10,AB13,AB16,AB19,AB22,AB25,AB28,AB31,AB34,AB37,AB40,,AB43,AB46,AB49,AB52)</f>
         <v>0</v>
       </c>
-      <c r="AC55" s="13" t="n">
+      <c r="AC55" s="12" t="n">
         <f aca="false">SUM(AC4,AC7,AC10,AC13,AC16,AC19,AC22,AC25,AC28,AC31,AC34,AC37,AC40,,AC43,AC46,AC49,AC52)</f>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="12" t="n">
         <f aca="false">SUM(AD4,AD7,AD10,AD13,AD16,AD19,AD22,AD25,AD28,AD31,AD34,AD37,AD40,,AD43,AD46,AD49,AD52)</f>
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="12" t="n">
+        <f aca="false">SUM(AE4,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AE28,AE31,AE34,AE37,AE40,,AE43,AE46,AE49,AE52)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -110,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -394,24 +395,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE55"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="AG17" activeCellId="0" sqref="AG17"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="AF35" activeCellId="0" sqref="AF35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="22" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="28" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="32" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="34" style="0" width="11.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +510,13 @@
       <c r="AD1" s="0" t="n">
         <v>9.04</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="0" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="AF1" s="0" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="AG1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -600,9 +611,15 @@
       <c r="AD2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" s="7" t="n">
-        <f aca="false">SUM(C2:AD2)</f>
-        <v>122</v>
+      <c r="AE2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="7" t="n">
+        <f aca="false">SUM(C2:AF2)</f>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,8 +714,14 @@
         <v>3</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <f aca="false">SUM(C3:AD3)</f>
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <f aca="false">SUM(C3:AF3)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,8 +816,14 @@
         <v>6</v>
       </c>
       <c r="AE4" s="12" t="n">
-        <f aca="false">SUM(C4:AD4)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <f aca="false">SUM(C4:AF4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,9 +917,15 @@
       <c r="AD5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AE5" s="7" t="n">
-        <f aca="false">SUM(C5:AD5)</f>
-        <v>225</v>
+      <c r="AE5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <f aca="false">SUM(C5:AF5)</f>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,8 +1020,14 @@
         <v>1</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <f aca="false">SUM(C6:AD6)</f>
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <f aca="false">SUM(C6:AF6)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,8 +1121,14 @@
       <c r="AD7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" s="12" t="n">
-        <f aca="false">SUM(C7:AD7)</f>
+      <c r="AE7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <f aca="false">SUM(C7:AF7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1176,9 +1223,15 @@
       <c r="AD8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="7" t="n">
-        <f aca="false">SUM(C8:AD8)</f>
-        <v>57</v>
+      <c r="AE8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="7" t="n">
+        <f aca="false">SUM(C8:AF8)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,9 +1325,15 @@
       <c r="AD9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE9" s="0" t="n">
-        <f aca="false">SUM(C9:AD9)</f>
-        <v>0</v>
+      <c r="AE9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <f aca="false">SUM(C9:AF9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1428,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="12" t="n">
-        <f aca="false">SUM(C10:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <f aca="false">SUM(C10:AF10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1464,9 +1529,15 @@
       <c r="AD11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="7" t="n">
-        <f aca="false">SUM(C11:AD11)</f>
-        <v>10</v>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="7" t="n">
+        <f aca="false">SUM(C11:AF11)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,8 +1632,14 @@
         <v>6</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <f aca="false">SUM(C12:AD12)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <f aca="false">SUM(C12:AF12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,8 +1733,14 @@
       <c r="AD13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE13" s="12" t="n">
-        <f aca="false">SUM(C13:AD13)</f>
+      <c r="AE13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <f aca="false">SUM(C13:AF13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1752,8 +1835,14 @@
       <c r="AD14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" s="7" t="n">
-        <f aca="false">SUM(C14:AD14)</f>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7" t="n">
+        <f aca="false">SUM(C14:AF14)</f>
         <v>11</v>
       </c>
     </row>
@@ -1849,7 +1938,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <f aca="false">SUM(C15:AD15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <f aca="false">SUM(C15:AF15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1944,8 +2039,14 @@
       <c r="AD16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE16" s="12" t="n">
-        <f aca="false">SUM(C16:AD16)</f>
+      <c r="AE16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="12" t="n">
+        <f aca="false">SUM(C16:AF16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2040,9 +2141,15 @@
       <c r="AD17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AE17" s="7" t="n">
-        <f aca="false">SUM(C17:AD17)</f>
-        <v>27</v>
+      <c r="AE17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="7" t="n">
+        <f aca="false">SUM(C17:AF17)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,9 +2243,15 @@
       <c r="AD18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE18" s="0" t="n">
-        <f aca="false">SUM(C18:AD18)</f>
-        <v>0</v>
+      <c r="AE18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <f aca="false">SUM(C18:AF18)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,7 +2346,13 @@
         <v>0</v>
       </c>
       <c r="AE19" s="12" t="n">
-        <f aca="false">SUM(C19:AD19)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <f aca="false">SUM(C19:AF19)</f>
         <v>1</v>
       </c>
     </row>
@@ -2328,9 +2447,15 @@
       <c r="AD20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="7" t="n">
-        <f aca="false">SUM(C20:AD20)</f>
-        <v>45</v>
+      <c r="AE20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <f aca="false">SUM(C20:AF20)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,8 +2550,14 @@
         <v>1</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <f aca="false">SUM(C21:AD21)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <f aca="false">SUM(C21:AF21)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,8 +2651,14 @@
       <c r="AD22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="12" t="n">
-        <f aca="false">SUM(C22:AD22)</f>
+      <c r="AE22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="12" t="n">
+        <f aca="false">SUM(C22:AF22)</f>
         <v>0</v>
       </c>
     </row>
@@ -2616,8 +2753,14 @@
       <c r="AD23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" s="7" t="n">
-        <f aca="false">SUM(C23:AD23)</f>
+      <c r="AE23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="7" t="n">
+        <f aca="false">SUM(C23:AF23)</f>
         <v>25</v>
       </c>
     </row>
@@ -2713,7 +2856,13 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0" t="n">
-        <f aca="false">SUM(C24:AD24)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <f aca="false">SUM(C24:AF24)</f>
         <v>1</v>
       </c>
     </row>
@@ -2808,8 +2957,14 @@
       <c r="AD25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE25" s="12" t="n">
-        <f aca="false">SUM(C25:AD25)</f>
+      <c r="AE25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="12" t="n">
+        <f aca="false">SUM(C25:AF25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2904,9 +3059,15 @@
       <c r="AD26" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="AE26" s="7" t="n">
-        <f aca="false">SUM(C26:AD26)</f>
-        <v>60</v>
+      <c r="AE26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7" t="n">
+        <f aca="false">SUM(C26:AF26)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,8 +3161,14 @@
       <c r="AD27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE27" s="0" t="n">
-        <f aca="false">SUM(C27:AD27)</f>
+      <c r="AE27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <f aca="false">SUM(C27:AF27)</f>
         <v>0</v>
       </c>
     </row>
@@ -3097,7 +3264,13 @@
         <v>0</v>
       </c>
       <c r="AE28" s="12" t="n">
-        <f aca="false">SUM(C28:AD28)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="12" t="n">
+        <f aca="false">SUM(C28:AF28)</f>
         <v>3</v>
       </c>
     </row>
@@ -3192,9 +3365,15 @@
       <c r="AD29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="AE29" s="7" t="n">
-        <f aca="false">SUM(C29:AD29)</f>
-        <v>42</v>
+      <c r="AE29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF29" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" s="7" t="n">
+        <f aca="false">SUM(C29:AF29)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,8 +3467,14 @@
       <c r="AD30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE30" s="0" t="n">
-        <f aca="false">SUM(C30:AD30)</f>
+      <c r="AE30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <f aca="false">SUM(C30:AF30)</f>
         <v>0</v>
       </c>
     </row>
@@ -3384,8 +3569,14 @@
       <c r="AD31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE31" s="12" t="n">
-        <f aca="false">SUM(C31:AD31)</f>
+      <c r="AE31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="12" t="n">
+        <f aca="false">SUM(C31:AF31)</f>
         <v>0</v>
       </c>
     </row>
@@ -3480,9 +3671,15 @@
       <c r="AD32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AE32" s="7" t="n">
-        <f aca="false">SUM(C32:AD32)</f>
-        <v>3</v>
+      <c r="AE32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="7" t="n">
+        <f aca="false">SUM(C32:AF32)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,7 +3774,13 @@
         <v>1</v>
       </c>
       <c r="AE33" s="0" t="n">
-        <f aca="false">SUM(C33:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <f aca="false">SUM(C33:AF33)</f>
         <v>1</v>
       </c>
     </row>
@@ -3673,7 +3876,13 @@
         <v>1</v>
       </c>
       <c r="AE34" s="12" t="n">
-        <f aca="false">SUM(C34:AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="12" t="n">
+        <f aca="false">SUM(C34:AF34)</f>
         <v>1</v>
       </c>
     </row>
@@ -3768,9 +3977,15 @@
       <c r="AD35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AE35" s="7" t="n">
-        <f aca="false">SUM(C35:AD35)</f>
-        <v>7</v>
+      <c r="AE35" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="7" t="n">
+        <f aca="false">SUM(C35:AF35)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,8 +4079,14 @@
       <c r="AD36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE36" s="0" t="n">
-        <f aca="false">SUM(C36:AD36)</f>
+      <c r="AE36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="0" t="n">
+        <f aca="false">SUM(C36:AF36)</f>
         <v>0</v>
       </c>
     </row>
@@ -3960,8 +4181,14 @@
       <c r="AD37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE37" s="12" t="n">
-        <f aca="false">SUM(C37:AD37)</f>
+      <c r="AE37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="12" t="n">
+        <f aca="false">SUM(C37:AF37)</f>
         <v>0</v>
       </c>
     </row>
@@ -4056,8 +4283,14 @@
       <c r="AD38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE38" s="7" t="n">
-        <f aca="false">SUM(C38:AD38)</f>
+      <c r="AE38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="7" t="n">
+        <f aca="false">SUM(C38:AF38)</f>
         <v>6</v>
       </c>
     </row>
@@ -4152,8 +4385,14 @@
       <c r="AD39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE39" s="0" t="n">
-        <f aca="false">SUM(C39:AD39)</f>
+      <c r="AE39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG39" s="0" t="n">
+        <f aca="false">SUM(C39:AF39)</f>
         <v>0</v>
       </c>
     </row>
@@ -4248,8 +4487,14 @@
       <c r="AD40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE40" s="12" t="n">
-        <f aca="false">SUM(C40:AD40)</f>
+      <c r="AE40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="12" t="n">
+        <f aca="false">SUM(C40:AF40)</f>
         <v>0</v>
       </c>
     </row>
@@ -4344,9 +4589,15 @@
       <c r="AD41" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="AE41" s="7" t="n">
-        <f aca="false">SUM(C41:AD41)</f>
-        <v>100</v>
+      <c r="AE41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF41" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG41" s="7" t="n">
+        <f aca="false">SUM(C41:AF41)</f>
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,8 +4691,14 @@
       <c r="AD42" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE42" s="0" t="n">
-        <f aca="false">SUM(C42:AD42)</f>
+      <c r="AE42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG42" s="0" t="n">
+        <f aca="false">SUM(C42:AF42)</f>
         <v>0</v>
       </c>
     </row>
@@ -4536,8 +4793,14 @@
       <c r="AD43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE43" s="12" t="n">
-        <f aca="false">SUM(C43:AD43)</f>
+      <c r="AE43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="12" t="n">
+        <f aca="false">SUM(C43:AF43)</f>
         <v>0</v>
       </c>
     </row>
@@ -4632,9 +4895,15 @@
       <c r="AD44" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AE44" s="7" t="n">
-        <f aca="false">SUM(C44:AD44)</f>
-        <v>4</v>
+      <c r="AE44" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="7" t="n">
+        <f aca="false">SUM(C44:AF44)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,8 +4997,14 @@
       <c r="AD45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE45" s="0" t="n">
-        <f aca="false">SUM(C45:AD45)</f>
+      <c r="AE45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG45" s="0" t="n">
+        <f aca="false">SUM(C45:AF45)</f>
         <v>0</v>
       </c>
     </row>
@@ -4824,8 +5099,14 @@
       <c r="AD46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE46" s="12" t="n">
-        <f aca="false">SUM(C46:AD46)</f>
+      <c r="AE46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG46" s="12" t="n">
+        <f aca="false">SUM(C46:AF46)</f>
         <v>0</v>
       </c>
     </row>
@@ -4920,9 +5201,15 @@
       <c r="AD47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE47" s="7" t="n">
-        <f aca="false">SUM(C47:AD47)</f>
-        <v>34</v>
+      <c r="AE47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="7" t="n">
+        <f aca="false">SUM(C47:AF47)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,8 +5303,14 @@
       <c r="AD48" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE48" s="0" t="n">
-        <f aca="false">SUM(C48:AD48)</f>
+      <c r="AE48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <f aca="false">SUM(C48:AF48)</f>
         <v>0</v>
       </c>
     </row>
@@ -5113,7 +5406,13 @@
         <v>0</v>
       </c>
       <c r="AE49" s="12" t="n">
-        <f aca="false">SUM(C49:AD49)</f>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="12" t="n">
+        <f aca="false">SUM(C49:AF49)</f>
         <v>1</v>
       </c>
     </row>
@@ -5208,8 +5507,14 @@
       <c r="AD50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" s="7" t="n">
-        <f aca="false">SUM(C50:AD50)</f>
+      <c r="AE50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7" t="n">
+        <f aca="false">SUM(C50:AF50)</f>
         <v>3</v>
       </c>
     </row>
@@ -5304,8 +5609,14 @@
       <c r="AD51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AE51" s="0" t="n">
-        <f aca="false">SUM(C51:AD51)</f>
+      <c r="AE51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG51" s="0" t="n">
+        <f aca="false">SUM(C51:AF51)</f>
         <v>0</v>
       </c>
     </row>
@@ -5400,8 +5711,14 @@
       <c r="AD52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AE52" s="12" t="n">
-        <f aca="false">SUM(C52:AD52)</f>
+      <c r="AE52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG52" s="12" t="n">
+        <f aca="false">SUM(C52:AF52)</f>
         <v>0</v>
       </c>
     </row>
@@ -5524,9 +5841,17 @@
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
         <v>54</v>
       </c>
-      <c r="AE53" s="7" t="n">
+      <c r="AE53" s="19" t="n">
         <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
-        <v>781</v>
+        <v>31</v>
+      </c>
+      <c r="AF53" s="19" t="n">
+        <f aca="false">SUM(AF2,AF5,AF8,AF11,AF14,AF17,AF20,AF23,AF26,AF29,AF32,AF35,AF38,,AF41,AF44,AF47,AF50)</f>
+        <v>53</v>
+      </c>
+      <c r="AG53" s="7" t="n">
+        <f aca="false">SUM(AG2,AG5,AG8,AG11,AG14,AG17,AG20,AG23,AG26,AG29,AG32,AG35,AG38,,AG41,AG44,AG47,AG50)</f>
+        <v>865</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,7 +5962,15 @@
       </c>
       <c r="AE54" s="0" t="n">
         <f aca="false">SUM(AE3,AE6,AE9,AE12,AE15,AE18,AE21,AE24,AE27,AE30,AE33,AE36,AE39,,AE42,AE45,AE48,AE51)</f>
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="AF54" s="0" t="n">
+        <f aca="false">SUM(AF3,AF6,AF9,AF12,AF15,AF18,AF21,AF24,AF27,AF30,AF33,AF36,AF39,,AF42,AF45,AF48,AF51)</f>
+        <v>17</v>
+      </c>
+      <c r="AG54" s="0" t="n">
+        <f aca="false">SUM(AG3,AG6,AG9,AG12,AG15,AG18,AG21,AG24,AG27,AG30,AG33,AG36,AG39,,AG42,AG45,AG48,AG51)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +6081,15 @@
       </c>
       <c r="AE55" s="12" t="n">
         <f aca="false">SUM(AE4,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AE28,AE31,AE34,AE37,AE40,,AE43,AE46,AE49,AE52)</f>
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="AF55" s="12" t="n">
+        <f aca="false">SUM(AF4,AF7,AF10,AF13,AF16,AF19,AF22,AF25,AF28,AF31,AF34,AF37,AF40,,AF43,AF46,AF49,AF52)</f>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="12" t="n">
+        <f aca="false">SUM(AG4,AG7,AG10,AG13,AG16,AG19,AG22,AG25,AG28,AG31,AG34,AG37,AG40,,AG43,AG46,AG49,AG52)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -237,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,7 +310,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,17 +403,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="AF35" activeCellId="0" sqref="AF35"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="AG53" activeCellId="0" sqref="AG53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -415,8 +423,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="34" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="5.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +523,10 @@
       <c r="AF1" s="0" t="n">
         <v>11.04</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="0" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="AH1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -617,9 +627,12 @@
       <c r="AF2" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="AG2" s="7" t="n">
-        <f aca="false">SUM(C2:AF2)</f>
-        <v>137</v>
+      <c r="AG2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="7" t="n">
+        <f aca="false">SUM(C2:AG2)</f>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +733,10 @@
         <v>9</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <f aca="false">SUM(C3:AF3)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <f aca="false">SUM(C3:AG3)</f>
         <v>37</v>
       </c>
     </row>
@@ -822,7 +838,10 @@
         <v>0</v>
       </c>
       <c r="AG4" s="12" t="n">
-        <f aca="false">SUM(C4:AF4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <f aca="false">SUM(C4:AG4)</f>
         <v>2</v>
       </c>
     </row>
@@ -923,9 +942,12 @@
       <c r="AF5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AG5" s="7" t="n">
-        <f aca="false">SUM(C5:AF5)</f>
-        <v>231</v>
+      <c r="AG5" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="7" t="n">
+        <f aca="false">SUM(C5:AG5)</f>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,8 +1048,11 @@
         <v>3</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <f aca="false">SUM(C6:AF6)</f>
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <f aca="false">SUM(C6:AG6)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,8 +1152,11 @@
       <c r="AF7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AG7" s="12" t="n">
-        <f aca="false">SUM(C7:AF7)</f>
+      <c r="AG7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <f aca="false">SUM(C7:AG7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1229,9 +1257,12 @@
       <c r="AF8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AG8" s="7" t="n">
-        <f aca="false">SUM(C8:AF8)</f>
-        <v>63</v>
+      <c r="AG8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="7" t="n">
+        <f aca="false">SUM(C8:AG8)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,7 +1363,10 @@
         <v>1</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <f aca="false">SUM(C9:AF9)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <f aca="false">SUM(C9:AG9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1434,7 +1468,10 @@
         <v>0</v>
       </c>
       <c r="AG10" s="12" t="n">
-        <f aca="false">SUM(C10:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12" t="n">
+        <f aca="false">SUM(C10:AG10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1535,8 +1572,11 @@
       <c r="AF11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG11" s="7" t="n">
-        <f aca="false">SUM(C11:AF11)</f>
+      <c r="AG11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7" t="n">
+        <f aca="false">SUM(C11:AG11)</f>
         <v>11</v>
       </c>
     </row>
@@ -1638,7 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AG12" s="0" t="n">
-        <f aca="false">SUM(C12:AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <f aca="false">SUM(C12:AG12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1739,8 +1782,11 @@
       <c r="AF13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG13" s="12" t="n">
-        <f aca="false">SUM(C13:AF13)</f>
+      <c r="AG13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <f aca="false">SUM(C13:AG13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1841,8 +1887,11 @@
       <c r="AF14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG14" s="7" t="n">
-        <f aca="false">SUM(C14:AF14)</f>
+      <c r="AG14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7" t="n">
+        <f aca="false">SUM(C14:AG14)</f>
         <v>11</v>
       </c>
     </row>
@@ -1944,7 +1993,10 @@
         <v>0</v>
       </c>
       <c r="AG15" s="0" t="n">
-        <f aca="false">SUM(C15:AF15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <f aca="false">SUM(C15:AG15)</f>
         <v>1</v>
       </c>
     </row>
@@ -2045,8 +2097,11 @@
       <c r="AF16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG16" s="12" t="n">
-        <f aca="false">SUM(C16:AF16)</f>
+      <c r="AG16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="12" t="n">
+        <f aca="false">SUM(C16:AG16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2147,9 +2202,12 @@
       <c r="AF17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AG17" s="7" t="n">
-        <f aca="false">SUM(C17:AF17)</f>
-        <v>35</v>
+      <c r="AG17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="7" t="n">
+        <f aca="false">SUM(C17:AG17)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2308,10 @@
         <v>2</v>
       </c>
       <c r="AG18" s="0" t="n">
-        <f aca="false">SUM(C18:AF18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <f aca="false">SUM(C18:AG18)</f>
         <v>2</v>
       </c>
     </row>
@@ -2333,7 +2394,7 @@
       <c r="Z19" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" s="18" t="n">
+      <c r="AA19" s="19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" s="12" t="n">
@@ -2352,7 +2413,10 @@
         <v>0</v>
       </c>
       <c r="AG19" s="12" t="n">
-        <f aca="false">SUM(C19:AF19)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <f aca="false">SUM(C19:AG19)</f>
         <v>1</v>
       </c>
     </row>
@@ -2453,8 +2517,11 @@
       <c r="AF20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" s="7" t="n">
-        <f aca="false">SUM(C20:AF20)</f>
+      <c r="AG20" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7" t="n">
+        <f aca="false">SUM(C20:AG20)</f>
         <v>46</v>
       </c>
     </row>
@@ -2556,7 +2623,10 @@
         <v>2</v>
       </c>
       <c r="AG21" s="0" t="n">
-        <f aca="false">SUM(C21:AF21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <f aca="false">SUM(C21:AG21)</f>
         <v>3</v>
       </c>
     </row>
@@ -2657,8 +2727,11 @@
       <c r="AF22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG22" s="12" t="n">
-        <f aca="false">SUM(C22:AF22)</f>
+      <c r="AG22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="12" t="n">
+        <f aca="false">SUM(C22:AG22)</f>
         <v>0</v>
       </c>
     </row>
@@ -2759,8 +2832,11 @@
       <c r="AF23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG23" s="7" t="n">
-        <f aca="false">SUM(C23:AF23)</f>
+      <c r="AG23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="7" t="n">
+        <f aca="false">SUM(C23:AG23)</f>
         <v>25</v>
       </c>
     </row>
@@ -2862,7 +2938,10 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0" t="n">
-        <f aca="false">SUM(C24:AF24)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <f aca="false">SUM(C24:AG24)</f>
         <v>1</v>
       </c>
     </row>
@@ -2963,8 +3042,11 @@
       <c r="AF25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG25" s="12" t="n">
-        <f aca="false">SUM(C25:AF25)</f>
+      <c r="AG25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="12" t="n">
+        <f aca="false">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
     </row>
@@ -3065,9 +3147,12 @@
       <c r="AF26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG26" s="7" t="n">
-        <f aca="false">SUM(C26:AF26)</f>
-        <v>61</v>
+      <c r="AG26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" s="7" t="n">
+        <f aca="false">SUM(C26:AG26)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,8 +3252,11 @@
       <c r="AF27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG27" s="0" t="n">
-        <f aca="false">SUM(C27:AF27)</f>
+      <c r="AG27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <f aca="false">SUM(C27:AG27)</f>
         <v>0</v>
       </c>
     </row>
@@ -3251,7 +3339,7 @@
       <c r="Z28" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA28" s="18" t="n">
+      <c r="AA28" s="19" t="n">
         <v>0</v>
       </c>
       <c r="AB28" s="12" t="n">
@@ -3270,7 +3358,10 @@
         <v>0</v>
       </c>
       <c r="AG28" s="12" t="n">
-        <f aca="false">SUM(C28:AF28)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="12" t="n">
+        <f aca="false">SUM(C28:AG28)</f>
         <v>3</v>
       </c>
     </row>
@@ -3371,8 +3462,11 @@
       <c r="AF29" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="AG29" s="7" t="n">
-        <f aca="false">SUM(C29:AF29)</f>
+      <c r="AG29" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="7" t="n">
+        <f aca="false">SUM(C29:AG29)</f>
         <v>59</v>
       </c>
     </row>
@@ -3474,8 +3568,11 @@
         <v>6</v>
       </c>
       <c r="AG30" s="0" t="n">
-        <f aca="false">SUM(C30:AF30)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <f aca="false">SUM(C30:AG30)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,8 +3672,11 @@
       <c r="AF31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG31" s="12" t="n">
-        <f aca="false">SUM(C31:AF31)</f>
+      <c r="AG31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH31" s="12" t="n">
+        <f aca="false">SUM(C31:AG31)</f>
         <v>0</v>
       </c>
     </row>
@@ -3677,8 +3777,11 @@
       <c r="AF32" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AG32" s="7" t="n">
-        <f aca="false">SUM(C32:AF32)</f>
+      <c r="AG32" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7" t="n">
+        <f aca="false">SUM(C32:AG32)</f>
         <v>9</v>
       </c>
     </row>
@@ -3780,7 +3883,10 @@
         <v>0</v>
       </c>
       <c r="AG33" s="0" t="n">
-        <f aca="false">SUM(C33:AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <f aca="false">SUM(C33:AG33)</f>
         <v>1</v>
       </c>
     </row>
@@ -3882,7 +3988,10 @@
         <v>0</v>
       </c>
       <c r="AG34" s="12" t="n">
-        <f aca="false">SUM(C34:AF34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="12" t="n">
+        <f aca="false">SUM(C34:AG34)</f>
         <v>1</v>
       </c>
     </row>
@@ -3983,9 +4092,12 @@
       <c r="AF35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG35" s="7" t="n">
-        <f aca="false">SUM(C35:AF35)</f>
-        <v>9</v>
+      <c r="AG35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="7" t="n">
+        <f aca="false">SUM(C35:AG35)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,8 +4197,11 @@
       <c r="AF36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG36" s="0" t="n">
-        <f aca="false">SUM(C36:AF36)</f>
+      <c r="AG36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <f aca="false">SUM(C36:AG36)</f>
         <v>0</v>
       </c>
     </row>
@@ -4187,8 +4302,11 @@
       <c r="AF37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG37" s="12" t="n">
-        <f aca="false">SUM(C37:AF37)</f>
+      <c r="AG37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="12" t="n">
+        <f aca="false">SUM(C37:AG37)</f>
         <v>0</v>
       </c>
     </row>
@@ -4289,8 +4407,11 @@
       <c r="AF38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG38" s="7" t="n">
-        <f aca="false">SUM(C38:AF38)</f>
+      <c r="AG38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="7" t="n">
+        <f aca="false">SUM(C38:AG38)</f>
         <v>6</v>
       </c>
     </row>
@@ -4391,8 +4512,11 @@
       <c r="AF39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG39" s="0" t="n">
-        <f aca="false">SUM(C39:AF39)</f>
+      <c r="AG39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="0" t="n">
+        <f aca="false">SUM(C39:AG39)</f>
         <v>0</v>
       </c>
     </row>
@@ -4493,8 +4617,11 @@
       <c r="AF40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG40" s="12" t="n">
-        <f aca="false">SUM(C40:AF40)</f>
+      <c r="AG40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH40" s="12" t="n">
+        <f aca="false">SUM(C40:AG40)</f>
         <v>0</v>
       </c>
     </row>
@@ -4595,8 +4722,11 @@
       <c r="AF41" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="AG41" s="7" t="n">
-        <f aca="false">SUM(C41:AF41)</f>
+      <c r="AG41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="7" t="n">
+        <f aca="false">SUM(C41:AG41)</f>
         <v>116</v>
       </c>
     </row>
@@ -4697,8 +4827,11 @@
       <c r="AF42" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG42" s="0" t="n">
-        <f aca="false">SUM(C42:AF42)</f>
+      <c r="AG42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH42" s="0" t="n">
+        <f aca="false">SUM(C42:AG42)</f>
         <v>0</v>
       </c>
     </row>
@@ -4799,8 +4932,11 @@
       <c r="AF43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG43" s="12" t="n">
-        <f aca="false">SUM(C43:AF43)</f>
+      <c r="AG43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH43" s="12" t="n">
+        <f aca="false">SUM(C43:AG43)</f>
         <v>0</v>
       </c>
     </row>
@@ -4901,9 +5037,12 @@
       <c r="AF44" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG44" s="7" t="n">
-        <f aca="false">SUM(C44:AF44)</f>
-        <v>7</v>
+      <c r="AG44" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="7" t="n">
+        <f aca="false">SUM(C44:AG44)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,8 +5142,11 @@
       <c r="AF45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG45" s="0" t="n">
-        <f aca="false">SUM(C45:AF45)</f>
+      <c r="AG45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH45" s="0" t="n">
+        <f aca="false">SUM(C45:AG45)</f>
         <v>0</v>
       </c>
     </row>
@@ -5105,8 +5247,11 @@
       <c r="AF46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG46" s="12" t="n">
-        <f aca="false">SUM(C46:AF46)</f>
+      <c r="AG46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH46" s="12" t="n">
+        <f aca="false">SUM(C46:AG46)</f>
         <v>0</v>
       </c>
     </row>
@@ -5207,8 +5352,11 @@
       <c r="AF47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG47" s="7" t="n">
-        <f aca="false">SUM(C47:AF47)</f>
+      <c r="AG47" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="7" t="n">
+        <f aca="false">SUM(C47:AG47)</f>
         <v>36</v>
       </c>
     </row>
@@ -5309,8 +5457,11 @@
       <c r="AF48" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG48" s="0" t="n">
-        <f aca="false">SUM(C48:AF48)</f>
+      <c r="AG48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <f aca="false">SUM(C48:AG48)</f>
         <v>0</v>
       </c>
     </row>
@@ -5393,7 +5544,7 @@
       <c r="Z49" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" s="18" t="n">
+      <c r="AA49" s="19" t="n">
         <v>0</v>
       </c>
       <c r="AB49" s="12" t="n">
@@ -5412,7 +5563,10 @@
         <v>0</v>
       </c>
       <c r="AG49" s="12" t="n">
-        <f aca="false">SUM(C49:AF49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="12" t="n">
+        <f aca="false">SUM(C49:AG49)</f>
         <v>1</v>
       </c>
     </row>
@@ -5513,8 +5667,11 @@
       <c r="AF50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG50" s="7" t="n">
-        <f aca="false">SUM(C50:AF50)</f>
+      <c r="AG50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="7" t="n">
+        <f aca="false">SUM(C50:AG50)</f>
         <v>3</v>
       </c>
     </row>
@@ -5615,8 +5772,11 @@
       <c r="AF51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG51" s="0" t="n">
-        <f aca="false">SUM(C51:AF51)</f>
+      <c r="AG51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH51" s="0" t="n">
+        <f aca="false">SUM(C51:AG51)</f>
         <v>0</v>
       </c>
     </row>
@@ -5717,8 +5877,11 @@
       <c r="AF52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG52" s="12" t="n">
-        <f aca="false">SUM(C52:AF52)</f>
+      <c r="AG52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH52" s="12" t="n">
+        <f aca="false">SUM(C52:AG52)</f>
         <v>0</v>
       </c>
     </row>
@@ -5829,29 +5992,33 @@
         <f aca="false">SUM(AA2,AA5,AA8,AA11,AA14,AA17,AA20,AA23,AA26,AA29,AA32,AA35,AA38,,AA41,AA44,AA47,AA50)</f>
         <v>78</v>
       </c>
-      <c r="AB53" s="19" t="n">
+      <c r="AB53" s="21" t="n">
         <f aca="false">SUM(AB2,AB5,AB8,AB11,AB14,AB17,AB20,AB23,AB26,AB29,AB32,AB35,AB38,,AB41,AB44,AB47,AB50)</f>
         <v>35</v>
       </c>
-      <c r="AC53" s="19" t="n">
+      <c r="AC53" s="21" t="n">
         <f aca="false">SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,,AC41,AC44,AC47,AC50)</f>
         <v>30</v>
       </c>
-      <c r="AD53" s="19" t="n">
+      <c r="AD53" s="21" t="n">
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
         <v>54</v>
       </c>
-      <c r="AE53" s="19" t="n">
+      <c r="AE53" s="21" t="n">
         <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
         <v>31</v>
       </c>
-      <c r="AF53" s="19" t="n">
+      <c r="AF53" s="21" t="n">
         <f aca="false">SUM(AF2,AF5,AF8,AF11,AF14,AF17,AF20,AF23,AF26,AF29,AF32,AF35,AF38,,AF41,AF44,AF47,AF50)</f>
         <v>53</v>
       </c>
-      <c r="AG53" s="7" t="n">
+      <c r="AG53" s="21" t="n">
         <f aca="false">SUM(AG2,AG5,AG8,AG11,AG14,AG17,AG20,AG23,AG26,AG29,AG32,AG35,AG38,,AG41,AG44,AG47,AG50)</f>
-        <v>865</v>
+        <v>32</v>
+      </c>
+      <c r="AH53" s="7" t="n">
+        <f aca="false">SUM(AH2,AH5,AH8,AH11,AH14,AH17,AH20,AH23,AH26,AH29,AH32,AH35,AH38,,AH41,AH44,AH47,AH50)</f>
+        <v>897</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5970,7 +6137,11 @@
       </c>
       <c r="AG54" s="0" t="n">
         <f aca="false">SUM(AG3,AG6,AG9,AG12,AG15,AG18,AG21,AG24,AG27,AG30,AG33,AG36,AG39,,AG42,AG45,AG48,AG51)</f>
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="AH54" s="0" t="n">
+        <f aca="false">SUM(AH3,AH6,AH9,AH12,AH15,AH18,AH21,AH24,AH27,AH30,AH33,AH36,AH39,,AH42,AH45,AH48,AH51)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,6 +6260,10 @@
       </c>
       <c r="AG55" s="12" t="n">
         <f aca="false">SUM(AG4,AG7,AG10,AG13,AG16,AG19,AG22,AG25,AG28,AG31,AG34,AG37,AG40,,AG43,AG46,AG49,AG52)</f>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="12" t="n">
+        <f aca="false">SUM(AH4,AH7,AH10,AH13,AH16,AH19,AH22,AH25,AH28,AH31,AH34,AH37,AH40,,AH43,AH46,AH49,AH52)</f>
         <v>10</v>
       </c>
     </row>

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -237,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,15 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,14 +398,14 @@
   <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="AG53" activeCellId="0" sqref="AG53"/>
+      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AG50" activeCellId="5" sqref="AG14 AG20 AG23 AG29 AG38 AG50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -628,11 +620,11 @@
         <v>14</v>
       </c>
       <c r="AG2" s="6" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AH2" s="7" t="n">
         <f aca="false">SUM(C2:AG2)</f>
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +725,11 @@
         <v>9</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH3" s="0" t="n">
         <f aca="false">SUM(C3:AG3)</f>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,11 +935,11 @@
         <v>3</v>
       </c>
       <c r="AG5" s="13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="7" t="n">
         <f aca="false">SUM(C5:AG5)</f>
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,12 +1564,12 @@
       <c r="AF11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG11" s="18" t="n">
-        <v>0</v>
+      <c r="AG11" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="AH11" s="7" t="n">
         <f aca="false">SUM(C11:AG11)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +1879,7 @@
       <c r="AF14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG14" s="18" t="n">
+      <c r="AG14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AH14" s="7" t="n">
@@ -2394,7 +2386,7 @@
       <c r="Z19" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" s="19" t="n">
+      <c r="AA19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB19" s="12" t="n">
@@ -2517,7 +2509,7 @@
       <c r="AF20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" s="20" t="n">
+      <c r="AG20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH20" s="7" t="n">
@@ -2832,7 +2824,7 @@
       <c r="AF23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG23" s="18" t="n">
+      <c r="AG23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AH23" s="7" t="n">
@@ -3339,7 +3331,7 @@
       <c r="Z28" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA28" s="19" t="n">
+      <c r="AA28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB28" s="12" t="n">
@@ -3462,7 +3454,7 @@
       <c r="AF29" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="AG29" s="20" t="n">
+      <c r="AG29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH29" s="7" t="n">
@@ -3777,12 +3769,12 @@
       <c r="AF32" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AG32" s="18" t="n">
-        <v>0</v>
+      <c r="AG32" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AH32" s="7" t="n">
         <f aca="false">SUM(C32:AG32)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4399,7 @@
       <c r="AF38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG38" s="18" t="n">
+      <c r="AG38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AH38" s="7" t="n">
@@ -4722,12 +4714,12 @@
       <c r="AF41" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="AG41" s="20" t="n">
-        <v>0</v>
+      <c r="AG41" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="AH41" s="7" t="n">
         <f aca="false">SUM(C41:AG41)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,12 +5029,12 @@
       <c r="AF44" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG44" s="18" t="n">
-        <v>1</v>
+      <c r="AG44" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="AH44" s="7" t="n">
         <f aca="false">SUM(C44:AG44)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,12 +5134,12 @@
       <c r="AF45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AG45" s="0" t="s">
-        <v>6</v>
+      <c r="AG45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AH45" s="0" t="n">
         <f aca="false">SUM(C45:AG45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,12 +5344,12 @@
       <c r="AF47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AG47" s="18" t="n">
-        <v>0</v>
+      <c r="AG47" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="AH47" s="7" t="n">
         <f aca="false">SUM(C47:AG47)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5536,7 @@
       <c r="Z49" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" s="19" t="n">
+      <c r="AA49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB49" s="12" t="n">
@@ -5667,7 +5659,7 @@
       <c r="AF50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG50" s="20" t="n">
+      <c r="AG50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH50" s="7" t="n">
@@ -5992,33 +5984,33 @@
         <f aca="false">SUM(AA2,AA5,AA8,AA11,AA14,AA17,AA20,AA23,AA26,AA29,AA32,AA35,AA38,,AA41,AA44,AA47,AA50)</f>
         <v>78</v>
       </c>
-      <c r="AB53" s="21" t="n">
+      <c r="AB53" s="19" t="n">
         <f aca="false">SUM(AB2,AB5,AB8,AB11,AB14,AB17,AB20,AB23,AB26,AB29,AB32,AB35,AB38,,AB41,AB44,AB47,AB50)</f>
         <v>35</v>
       </c>
-      <c r="AC53" s="21" t="n">
+      <c r="AC53" s="19" t="n">
         <f aca="false">SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,,AC41,AC44,AC47,AC50)</f>
         <v>30</v>
       </c>
-      <c r="AD53" s="21" t="n">
+      <c r="AD53" s="19" t="n">
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
         <v>54</v>
       </c>
-      <c r="AE53" s="21" t="n">
+      <c r="AE53" s="19" t="n">
         <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
         <v>31</v>
       </c>
-      <c r="AF53" s="21" t="n">
+      <c r="AF53" s="19" t="n">
         <f aca="false">SUM(AF2,AF5,AF8,AF11,AF14,AF17,AF20,AF23,AF26,AF29,AF32,AF35,AF38,,AF41,AF44,AF47,AF50)</f>
         <v>53</v>
       </c>
-      <c r="AG53" s="21" t="n">
+      <c r="AG53" s="19" t="n">
         <f aca="false">SUM(AG2,AG5,AG8,AG11,AG14,AG17,AG20,AG23,AG26,AG29,AG32,AG35,AG38,,AG41,AG44,AG47,AG50)</f>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AH53" s="7" t="n">
         <f aca="false">SUM(AH2,AH5,AH8,AH11,AH14,AH17,AH20,AH23,AH26,AH29,AH32,AH35,AH38,,AH41,AH44,AH47,AH50)</f>
-        <v>897</v>
+        <v>951</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,11 +6129,11 @@
       </c>
       <c r="AG54" s="0" t="n">
         <f aca="false">SUM(AG3,AG6,AG9,AG12,AG15,AG18,AG21,AG24,AG27,AG30,AG33,AG36,AG39,,AG42,AG45,AG48,AG51)</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AH54" s="0" t="n">
         <f aca="false">SUM(AH3,AH6,AH9,AH12,AH15,AH18,AH21,AH24,AH27,AH30,AH33,AH36,AH39,,AH42,AH45,AH48,AH51)</f>
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -406,14 +406,14 @@
   <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="AL36" activeCellId="0" sqref="AL36"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AL43" activeCellId="0" sqref="AL43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -640,11 +640,11 @@
         <v>106</v>
       </c>
       <c r="AI2" s="6" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" s="7" t="n">
         <f aca="false">SUM(C2:AI2)</f>
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,11 +751,11 @@
         <v>1</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AJ3" s="0" t="n">
         <f aca="false">SUM(C3:AI3)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,11 +973,11 @@
         <v>9</v>
       </c>
       <c r="AI5" s="13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ5" s="7" t="n">
         <f aca="false">SUM(C5:AI5)</f>
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,11 +1084,11 @@
         <v>26</v>
       </c>
       <c r="AI6" s="0" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AJ6" s="0" t="n">
         <f aca="false">SUM(C6:AI6)</f>
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,12 +1638,12 @@
       <c r="AH11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI11" s="18" t="n">
-        <v>0</v>
+      <c r="AI11" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="AJ11" s="7" t="n">
         <f aca="false">SUM(C11:AI11)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,12 +3303,12 @@
       <c r="AH26" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AI26" s="18" t="n">
-        <v>0</v>
+      <c r="AI26" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="AJ26" s="7" t="n">
         <f aca="false">SUM(C26:AI26)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,11 +3748,11 @@
         <v>3</v>
       </c>
       <c r="AI30" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ30" s="0" t="n">
         <f aca="false">SUM(C30:AI30)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,11 +5635,11 @@
         <v>1</v>
       </c>
       <c r="AI47" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ47" s="7" t="n">
         <f aca="false">SUM(C47:AI47)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,12 +5967,12 @@
       <c r="AH50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AI50" s="20" t="n">
-        <v>0</v>
+      <c r="AI50" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="AJ50" s="7" t="n">
         <f aca="false">SUM(C50:AI50)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,11 +6334,11 @@
       </c>
       <c r="AI53" s="21" t="n">
         <f aca="false">SUM(AI2,AI5,AI8,AI11,AI14,AI17,AI20,AI23,AI26,AI29,AI32,AI35,AI38,,AI41,AI44,AI47,AI50)</f>
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="AJ53" s="7" t="n">
         <f aca="false">SUM(AJ2,AJ5,AJ8,AJ11,AJ14,AJ17,AJ20,AJ23,AJ26,AJ29,AJ32,AJ35,AJ38,,AJ41,AJ44,AJ47,AJ50)</f>
-        <v>1179</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,11 +6465,11 @@
       </c>
       <c r="AI54" s="0" t="n">
         <f aca="false">SUM(AI3,AI6,AI9,AI12,AI15,AI18,AI21,AI24,AI27,AI30,AI33,AI36,AI39,,AI42,AI45,AI48,AI51)</f>
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AJ54" s="0" t="n">
         <f aca="false">SUM(AJ3,AJ6,AJ9,AJ12,AJ15,AJ18,AJ21,AJ24,AJ27,AJ30,AJ33,AJ36,AJ39,,AJ42,AJ45,AJ48,AJ51)</f>
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -237,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,15 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,14 +398,14 @@
   <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL43" activeCellId="0" sqref="AL43"/>
+      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="AI23" activeCellId="2" sqref="AI35 AI38 AI23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -640,11 +632,11 @@
         <v>106</v>
       </c>
       <c r="AI2" s="6" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AJ2" s="7" t="n">
         <f aca="false">SUM(C2:AI2)</f>
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,11 +965,11 @@
         <v>9</v>
       </c>
       <c r="AI5" s="13" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AJ5" s="7" t="n">
         <f aca="false">SUM(C5:AI5)</f>
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,12 +1963,12 @@
       <c r="AH14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI14" s="18" t="n">
-        <v>0</v>
+      <c r="AI14" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AJ14" s="7" t="n">
         <f aca="false">SUM(C14:AI14)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2494,7 @@
       <c r="Z19" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" s="19" t="n">
+      <c r="AA19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB19" s="12" t="n">
@@ -2970,7 +2962,7 @@
       <c r="AH23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI23" s="18" t="n">
+      <c r="AI23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" s="7" t="n">
@@ -3501,7 +3493,7 @@
       <c r="Z28" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA28" s="19" t="n">
+      <c r="AA28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB28" s="12" t="n">
@@ -3637,11 +3629,11 @@
         <v>3</v>
       </c>
       <c r="AI29" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ29" s="7" t="n">
         <f aca="false">SUM(C29:AI29)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,12 +3961,12 @@
       <c r="AH32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI32" s="18" t="n">
-        <v>0</v>
+      <c r="AI32" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AJ32" s="7" t="n">
         <f aca="false">SUM(C32:AI32)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,7 +4294,7 @@
       <c r="AH35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI35" s="18" t="n">
+      <c r="AI35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" s="7" t="n">
@@ -4635,7 +4627,7 @@
       <c r="AH38" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AI38" s="18" t="n">
+      <c r="AI38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" s="7" t="n">
@@ -4968,12 +4960,12 @@
       <c r="AH41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AI41" s="20" t="n">
-        <v>0</v>
+      <c r="AI41" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="AJ41" s="7" t="n">
         <f aca="false">SUM(C41:AI41)</f>
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,12 +5293,12 @@
       <c r="AH44" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AI44" s="18" t="n">
-        <v>0</v>
+      <c r="AI44" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AJ44" s="7" t="n">
         <f aca="false">SUM(C44:AI44)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5824,7 @@
       <c r="Z49" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" s="19" t="n">
+      <c r="AA49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB49" s="12" t="n">
@@ -6304,41 +6296,41 @@
         <f aca="false">SUM(AA2,AA5,AA8,AA11,AA14,AA17,AA20,AA23,AA26,AA29,AA32,AA35,AA38,,AA41,AA44,AA47,AA50)</f>
         <v>78</v>
       </c>
-      <c r="AB53" s="21" t="n">
+      <c r="AB53" s="19" t="n">
         <f aca="false">SUM(AB2,AB5,AB8,AB11,AB14,AB17,AB20,AB23,AB26,AB29,AB32,AB35,AB38,,AB41,AB44,AB47,AB50)</f>
         <v>35</v>
       </c>
-      <c r="AC53" s="21" t="n">
+      <c r="AC53" s="19" t="n">
         <f aca="false">SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,,AC41,AC44,AC47,AC50)</f>
         <v>30</v>
       </c>
-      <c r="AD53" s="21" t="n">
+      <c r="AD53" s="19" t="n">
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
         <v>54</v>
       </c>
-      <c r="AE53" s="21" t="n">
+      <c r="AE53" s="19" t="n">
         <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
         <v>31</v>
       </c>
-      <c r="AF53" s="21" t="n">
+      <c r="AF53" s="19" t="n">
         <f aca="false">SUM(AF2,AF5,AF8,AF11,AF14,AF17,AF20,AF23,AF26,AF29,AF32,AF35,AF38,,AF41,AF44,AF47,AF50)</f>
         <v>53</v>
       </c>
-      <c r="AG53" s="21" t="n">
+      <c r="AG53" s="19" t="n">
         <f aca="false">SUM(AG2,AG5,AG8,AG11,AG14,AG17,AG20,AG23,AG26,AG29,AG32,AG35,AG38,,AG41,AG44,AG47,AG50)</f>
         <v>86</v>
       </c>
-      <c r="AH53" s="21" t="n">
+      <c r="AH53" s="19" t="n">
         <f aca="false">SUM(AH2,AH5,AH8,AH11,AH14,AH17,AH20,AH23,AH26,AH29,AH32,AH35,AH38,,AH41,AH44,AH47,AH50)</f>
         <v>140</v>
       </c>
-      <c r="AI53" s="21" t="n">
+      <c r="AI53" s="19" t="n">
         <f aca="false">SUM(AI2,AI5,AI8,AI11,AI14,AI17,AI20,AI23,AI26,AI29,AI32,AI35,AI38,,AI41,AI44,AI47,AI50)</f>
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="AJ53" s="7" t="n">
         <f aca="false">SUM(AJ2,AJ5,AJ8,AJ11,AJ14,AJ17,AJ20,AJ23,AJ26,AJ29,AJ32,AJ35,AJ38,,AJ41,AJ44,AJ47,AJ50)</f>
-        <v>1199</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">зараженные</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">выздоровевшие</t>
   </si>
   <si>
-    <t xml:space="preserve">выздоровевшие</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">умершие</t>
@@ -237,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,10 +263,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,14 +398,14 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AI1" activeCellId="0" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="AL53" activeCellId="0" sqref="AL53"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="AO34" activeCellId="0" sqref="AO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -653,59 +649,59 @@
       <c r="AK2" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="AL2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="8" t="n">
+      <c r="AL2" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="7" t="n">
         <f aca="false">SUM(C2:AL2)</f>
-        <v>417</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
@@ -773,130 +769,130 @@
       <c r="AK3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="AL3" s="0" t="s">
-        <v>5</v>
+      <c r="AL3" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="AM3" s="0" t="n">
         <f aca="false">SUM(C3:AL3)</f>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM4" s="13" t="n">
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="12" t="n">
         <f aca="false">SUM(C4:AL4)</f>
         <v>3</v>
       </c>
@@ -908,164 +904,164 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="n">
+      <c r="C5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14" t="n">
+      <c r="H5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14" t="n">
+      <c r="K5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="O5" s="14" t="n">
+      <c r="O5" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="P5" s="14" t="n">
+      <c r="P5" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="Q5" s="14" t="n">
+      <c r="Q5" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="R5" s="14" t="n">
+      <c r="R5" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="S5" s="14" t="n">
+      <c r="S5" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="T5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="14" t="n">
+      <c r="T5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="V5" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="W5" s="14" t="n">
+      <c r="V5" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="X5" s="14" t="n">
+      <c r="X5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="Z5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="14" t="n">
+      <c r="Z5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AF5" s="14" t="n">
+      <c r="AF5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AG5" s="14" t="n">
+      <c r="AG5" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="AH5" s="14" t="n">
+      <c r="AH5" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="AI5" s="14" t="n">
+      <c r="AI5" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="AJ5" s="14" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>15</v>
       </c>
       <c r="AK5" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM5" s="8" t="n">
+      <c r="AL5" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM5" s="7" t="n">
         <f aca="false">SUM(C5:AL5)</f>
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>1</v>
@@ -1133,161 +1129,161 @@
       <c r="AK6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AL6" s="0" t="s">
-        <v>5</v>
+      <c r="AL6" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="AM6" s="0" t="n">
         <f aca="false">SUM(C6:AL6)</f>
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM7" s="13" t="n">
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12" t="n">
         <f aca="false">SUM(C7:AL7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>5</v>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>2</v>
@@ -1373,107 +1369,107 @@
       <c r="AK8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM8" s="8" t="n">
+      <c r="AL8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="7" t="n">
         <f aca="false">SUM(C8:AL8)</f>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1</v>
@@ -1493,130 +1489,130 @@
       <c r="AK9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AL9" s="0" t="s">
-        <v>5</v>
+      <c r="AL9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AM9" s="0" t="n">
         <f aca="false">SUM(C9:AL9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM10" s="13" t="n">
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12" t="n">
         <f aca="false">SUM(C10:AL10)</f>
         <v>1</v>
       </c>
@@ -1628,29 +1624,29 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>5</v>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>1</v>
@@ -1733,104 +1729,104 @@
       <c r="AK11" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AL11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM11" s="8" t="n">
+      <c r="AL11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="7" t="n">
         <f aca="false">SUM(C11:AL11)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>6</v>
+      <c r="B12" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>1</v>
@@ -1853,130 +1849,130 @@
       <c r="AK12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="0" t="s">
-        <v>5</v>
+      <c r="AL12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AM12" s="0" t="n">
         <f aca="false">SUM(C12:AL12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM13" s="13" t="n">
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM13" s="12" t="n">
         <f aca="false">SUM(C13:AL13)</f>
         <v>0</v>
       </c>
@@ -1988,32 +1984,32 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>5</v>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>1</v>
@@ -2093,95 +2089,95 @@
       <c r="AK14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="8" t="n">
+      <c r="AL14" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM14" s="7" t="n">
         <f aca="false">SUM(C14:AL14)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>6</v>
+      <c r="B15" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>1</v>
@@ -2213,130 +2209,130 @@
       <c r="AK15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" s="0" t="s">
-        <v>5</v>
+      <c r="AL15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AM15" s="0" t="n">
         <f aca="false">SUM(C15:AL15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="13" t="n">
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="12" t="n">
         <f aca="false">SUM(C16:AL16)</f>
         <v>0</v>
       </c>
@@ -2348,38 +2344,38 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>5</v>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="N17" s="3" t="n">
         <v>1</v>
@@ -2453,107 +2449,107 @@
       <c r="AK17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AL17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM17" s="8" t="n">
+      <c r="AL17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="7" t="n">
         <f aca="false">SUM(C17:AL17)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>6</v>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>2</v>
@@ -2573,130 +2569,130 @@
       <c r="AK18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL18" s="0" t="s">
-        <v>5</v>
+      <c r="AL18" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="AM18" s="0" t="n">
         <f aca="false">SUM(C18:AL18)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM19" s="13" t="n">
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="12" t="n">
         <f aca="false">SUM(C19:AL19)</f>
         <v>3</v>
       </c>
@@ -2708,38 +2704,38 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>5</v>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="N20" s="3" t="n">
         <v>1</v>
@@ -2813,101 +2809,101 @@
       <c r="AK20" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AL20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM20" s="8" t="n">
+      <c r="AL20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="7" t="n">
         <f aca="false">SUM(C20:AL20)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>6</v>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD21" s="0" t="n">
         <v>1</v>
@@ -2933,130 +2929,130 @@
       <c r="AK21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="0" t="s">
-        <v>5</v>
+      <c r="AL21" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="AM21" s="0" t="n">
         <f aca="false">SUM(C21:AL21)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM22" s="13" t="n">
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12" t="n">
         <f aca="false">SUM(C22:AL22)</f>
         <v>0</v>
       </c>
@@ -3068,38 +3064,38 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>5</v>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="N23" s="3" t="n">
         <v>1</v>
@@ -3173,92 +3169,92 @@
       <c r="AK23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM23" s="8" t="n">
+      <c r="AL23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="7" t="n">
         <f aca="false">SUM(C23:AL23)</f>
         <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>6</v>
+      <c r="B24" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA24" s="0" t="n">
         <v>1</v>
@@ -3293,130 +3289,130 @@
       <c r="AK24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AL24" s="0" t="s">
-        <v>5</v>
+      <c r="AL24" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="AM24" s="0" t="n">
         <f aca="false">SUM(C24:AL24)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM25" s="13" t="n">
+      <c r="C25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM25" s="12" t="n">
         <f aca="false">SUM(C25:AL25)</f>
         <v>0</v>
       </c>
@@ -3428,47 +3424,47 @@
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>5</v>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>3</v>
@@ -3533,113 +3529,113 @@
       <c r="AK26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM26" s="8" t="n">
+      <c r="AL26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="7" t="n">
         <f aca="false">SUM(C26:AL26)</f>
         <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>6</v>
+      <c r="B27" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" s="0" t="n">
         <v>4</v>
@@ -3653,130 +3649,130 @@
       <c r="AK27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL27" s="0" t="s">
-        <v>5</v>
+      <c r="AL27" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="AM27" s="0" t="n">
         <f aca="false">SUM(C27:AL27)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM28" s="13" t="n">
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="12" t="n">
         <f aca="false">SUM(C28:AL28)</f>
         <v>4</v>
       </c>
@@ -3788,47 +3784,47 @@
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>5</v>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>3</v>
@@ -3893,110 +3889,110 @@
       <c r="AK29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM29" s="8" t="n">
+      <c r="AL29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="7" t="n">
         <f aca="false">SUM(C29:AL29)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>6</v>
+      <c r="B30" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" s="0" t="n">
         <v>2</v>
@@ -4013,130 +4009,130 @@
       <c r="AK30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="AL30" s="0" t="s">
-        <v>5</v>
+      <c r="AL30" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AM30" s="0" t="n">
         <f aca="false">SUM(C30:AL30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM31" s="13" t="n">
+      <c r="C31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH31" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="12" t="n">
         <f aca="false">SUM(C31:AL31)</f>
         <v>0</v>
       </c>
@@ -4148,47 +4144,47 @@
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>5</v>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="Q32" s="3" t="n">
         <v>1</v>
@@ -4253,101 +4249,101 @@
       <c r="AK32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AL32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM32" s="8" t="n">
+      <c r="AL32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="7" t="n">
         <f aca="false">SUM(C32:AL32)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>6</v>
+      <c r="B33" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD33" s="0" t="n">
         <v>1</v>
@@ -4373,8 +4369,8 @@
       <c r="AK33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL33" s="0" t="s">
-        <v>5</v>
+      <c r="AL33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AM33" s="0" t="n">
         <f aca="false">SUM(C33:AL33)</f>
@@ -4382,121 +4378,121 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM34" s="13" t="n">
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="12" t="n">
         <f aca="false">SUM(C34:AL34)</f>
         <v>1</v>
       </c>
@@ -4508,47 +4504,47 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>5</v>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>1</v>
@@ -4613,113 +4609,113 @@
       <c r="AK35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AL35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM35" s="8" t="n">
+      <c r="AL35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="7" t="n">
         <f aca="false">SUM(C35:AL35)</f>
         <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>6</v>
+      <c r="B36" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH36" s="0" t="n">
         <v>1</v>
@@ -4733,8 +4729,8 @@
       <c r="AK36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL36" s="0" t="s">
-        <v>5</v>
+      <c r="AL36" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AM36" s="0" t="n">
         <f aca="false">SUM(C36:AL36)</f>
@@ -4742,121 +4738,121 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM37" s="13" t="n">
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="12" t="n">
         <f aca="false">SUM(C37:AL37)</f>
         <v>0</v>
       </c>
@@ -4868,50 +4864,50 @@
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>5</v>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>2</v>
@@ -4973,128 +4969,128 @@
       <c r="AK38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AL38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM38" s="8" t="n">
+      <c r="AL38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="7" t="n">
         <f aca="false">SUM(C38:AL38)</f>
         <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>6</v>
+      <c r="B39" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM39" s="0" t="n">
         <f aca="false">SUM(C39:AL39)</f>
@@ -5102,121 +5098,121 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM40" s="13" t="n">
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH40" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="12" t="n">
         <f aca="false">SUM(C40:AL40)</f>
         <v>1</v>
       </c>
@@ -5228,50 +5224,50 @@
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>5</v>
+      <c r="C41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="R41" s="3" t="n">
         <v>1</v>
@@ -5333,113 +5329,113 @@
       <c r="AK41" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AL41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM41" s="8" t="n">
+      <c r="AL41" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM41" s="7" t="n">
         <f aca="false">SUM(C41:AL41)</f>
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>6</v>
+      <c r="B42" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH42" s="0" t="n">
         <v>1</v>
@@ -5453,130 +5449,130 @@
       <c r="AK42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AL42" s="0" t="s">
-        <v>5</v>
+      <c r="AL42" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="AM42" s="0" t="n">
         <f aca="false">SUM(C42:AL42)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM43" s="13" t="n">
+      <c r="C43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM43" s="12" t="n">
         <f aca="false">SUM(C43:AL43)</f>
         <v>0</v>
       </c>
@@ -5588,53 +5584,53 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="8" t="s">
-        <v>5</v>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="S44" s="3" t="n">
         <v>2</v>
@@ -5693,110 +5689,110 @@
       <c r="AK44" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AL44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM44" s="8" t="n">
+      <c r="AL44" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM44" s="7" t="n">
         <f aca="false">SUM(C44:AL44)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>6</v>
+      <c r="B45" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG45" s="0" t="n">
         <v>1</v>
@@ -5813,8 +5809,8 @@
       <c r="AK45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL45" s="0" t="s">
-        <v>5</v>
+      <c r="AL45" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AM45" s="0" t="n">
         <f aca="false">SUM(C45:AL45)</f>
@@ -5822,121 +5818,121 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM46" s="13" t="n">
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM46" s="12" t="n">
         <f aca="false">SUM(C46:AL46)</f>
         <v>0</v>
       </c>
@@ -5948,59 +5944,59 @@
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="8" t="s">
-        <v>5</v>
+      <c r="C47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="U47" s="3" t="n">
         <v>1</v>
@@ -6053,250 +6049,250 @@
       <c r="AK47" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AL47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM47" s="8" t="n">
+      <c r="AL47" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="7" t="n">
         <f aca="false">SUM(C47:AL47)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>6</v>
+      <c r="B48" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AL48" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="AM48" s="0" t="n">
         <f aca="false">SUM(C48:AL48)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM49" s="13" t="n">
+      <c r="C49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="12" t="n">
         <f aca="false">SUM(C49:AL49)</f>
         <v>1</v>
       </c>
@@ -6308,68 +6304,68 @@
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W50" s="8" t="s">
-        <v>5</v>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="X50" s="3" t="n">
         <v>1</v>
@@ -6413,128 +6409,128 @@
       <c r="AK50" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AL50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM50" s="8" t="n">
+      <c r="AL50" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM50" s="7" t="n">
         <f aca="false">SUM(C50:AL50)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>6</v>
+      <c r="B51" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM51" s="0" t="n">
         <f aca="false">SUM(C51:AL51)</f>
@@ -6542,121 +6538,121 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM52" s="13" t="n">
+      <c r="C52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ52" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="12" t="n">
         <f aca="false">SUM(C52:AL52)</f>
         <v>1</v>
       </c>
@@ -6768,100 +6764,100 @@
         <f aca="false">SUM(AA2,AA5,AA8,AA11,AA14,AA17,AA20,AA23,AA26,AA29,AA32,AA35,AA38,,AA41,AA44,AA47,AA50)</f>
         <v>78</v>
       </c>
-      <c r="AB53" s="20" t="n">
+      <c r="AB53" s="19" t="n">
         <f aca="false">SUM(AB2,AB5,AB8,AB11,AB14,AB17,AB20,AB23,AB26,AB29,AB32,AB35,AB38,,AB41,AB44,AB47,AB50)</f>
         <v>35</v>
       </c>
-      <c r="AC53" s="20" t="n">
+      <c r="AC53" s="19" t="n">
         <f aca="false">SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,,AC41,AC44,AC47,AC50)</f>
         <v>30</v>
       </c>
-      <c r="AD53" s="20" t="n">
+      <c r="AD53" s="19" t="n">
         <f aca="false">SUM(AD2,AD5,AD8,AD11,AD14,AD17,AD20,AD23,AD26,AD29,AD32,AD35,AD38,,AD41,AD44,AD47,AD50)</f>
         <v>54</v>
       </c>
-      <c r="AE53" s="20" t="n">
+      <c r="AE53" s="19" t="n">
         <f aca="false">SUM(AE2,AE5,AE8,AE11,AE14,AE17,AE20,AE23,AE26,AE29,AE32,AE35,AE38,,AE41,AE44,AE47,AE50)</f>
         <v>31</v>
       </c>
-      <c r="AF53" s="20" t="n">
+      <c r="AF53" s="19" t="n">
         <f aca="false">SUM(AF2,AF5,AF8,AF11,AF14,AF17,AF20,AF23,AF26,AF29,AF32,AF35,AF38,,AF41,AF44,AF47,AF50)</f>
         <v>53</v>
       </c>
-      <c r="AG53" s="20" t="n">
+      <c r="AG53" s="19" t="n">
         <f aca="false">SUM(AG2,AG5,AG8,AG11,AG14,AG17,AG20,AG23,AG26,AG29,AG32,AG35,AG38,,AG41,AG44,AG47,AG50)</f>
         <v>86</v>
       </c>
-      <c r="AH53" s="20" t="n">
+      <c r="AH53" s="19" t="n">
         <f aca="false">SUM(AH2,AH5,AH8,AH11,AH14,AH17,AH20,AH23,AH26,AH29,AH32,AH35,AH38,,AH41,AH44,AH47,AH50)</f>
         <v>140</v>
       </c>
-      <c r="AI53" s="20" t="n">
+      <c r="AI53" s="19" t="n">
         <f aca="false">SUM(AI2,AI5,AI8,AI11,AI14,AI17,AI20,AI23,AI26,AI29,AI32,AI35,AI38,,AI41,AI44,AI47,AI50)</f>
         <v>141</v>
       </c>
-      <c r="AJ53" s="20" t="n">
+      <c r="AJ53" s="19" t="n">
         <f aca="false">SUM(AJ2,AJ5,AJ8,AJ11,AJ14,AJ17,AJ20,AJ23,AJ26,AJ29,AJ32,AJ35,AJ38,,AJ41,AJ44,AJ47,AJ50)</f>
         <v>63</v>
       </c>
-      <c r="AK53" s="20" t="n">
+      <c r="AK53" s="19" t="n">
         <f aca="false">SUM(AK2,AK5,AK8,AK11,AK14,AK17,AK20,AK23,AK26,AK29,AK32,AK35,AK38,,AK41,AK44,AK47,AK50)</f>
         <v>107</v>
       </c>
-      <c r="AL53" s="20" t="n">
+      <c r="AL53" s="19" t="n">
         <f aca="false">SUM(AL2,AL5,AL8,AL11,AL14,AL17,AL20,AL23,AL26,AL29,AL32,AL35,AL38,,AL41,AL44,AL47,AL50)</f>
-        <v>0</v>
-      </c>
-      <c r="AM53" s="8" t="n">
+        <v>144</v>
+      </c>
+      <c r="AM53" s="7" t="n">
         <f aca="false">SUM(AM2,AM5,AM8,AM11,AM14,AM17,AM20,AM23,AM26,AM29,AM32,AM35,AM38,,AM41,AM44,AM47,AM50)</f>
-        <v>1402</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>6</v>
+      <c r="B54" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54" s="0" t="n">
         <f aca="false">SUM(P3,P6,P9,P12,P15,P18,P21,P24,P27,P30,P33,P36,P39,,P42,P45,P48,P51)</f>
@@ -6953,152 +6949,152 @@
       </c>
       <c r="AL54" s="0" t="n">
         <f aca="false">SUM(AL3,AL6,AL9,AL12,AL15,AL18,AL21,AL24,AL27,AL30,AL33,AL36,AL39,,AL42,AL45,AL48,AL51)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM54" s="0" t="n">
         <f aca="false">SUM(AM3,AM6,AM9,AM12,AM15,AM18,AM21,AM24,AM27,AM30,AM33,AM36,AM39,,AM42,AM45,AM48,AM51)</f>
-        <v>277</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P55" s="13" t="n">
+      <c r="C55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="12" t="n">
         <f aca="false">SUM(P4,P7,P10,P13,P16,P19,P22,P25,P28,P31,P34,P37,P40,,P43,P46,P49,P52)</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="13" t="n">
+      <c r="Q55" s="12" t="n">
         <f aca="false">SUM(Q4,Q7,Q10,Q13,Q16,Q19,Q22,Q25,Q28,Q31,Q34,Q37,Q40,,Q43,Q46,Q49,Q52)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="13" t="n">
+      <c r="R55" s="12" t="n">
         <f aca="false">SUM(R4,R7,R10,R13,R16,R19,R22,R25,R28,R31,R34,R37,R40,,R43,R46,R49,R52)</f>
         <v>0</v>
       </c>
-      <c r="S55" s="13" t="n">
+      <c r="S55" s="12" t="n">
         <f aca="false">SUM(S4,S7,S10,S13,S16,S19,S22,S25,S28,S31,S34,S37,S40,,S43,S46,S49,S52)</f>
         <v>0</v>
       </c>
-      <c r="T55" s="13" t="n">
+      <c r="T55" s="12" t="n">
         <f aca="false">SUM(T4,T7,T10,T13,T16,T19,T22,T25,T28,T31,T34,T37,T40,,T43,T46,T49,T52)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="13" t="n">
+      <c r="U55" s="12" t="n">
         <f aca="false">SUM(U4,U7,U10,U13,U16,U19,U22,U25,U28,U31,U34,U37,U40,,U43,U46,U49,U52)</f>
         <v>1</v>
       </c>
-      <c r="V55" s="13" t="n">
+      <c r="V55" s="12" t="n">
         <f aca="false">SUM(V4,V7,V10,V13,V16,V19,V22,V25,V28,V31,V34,V37,V40,,V43,V46,V49,V52)</f>
         <v>1</v>
       </c>
-      <c r="W55" s="13" t="n">
+      <c r="W55" s="12" t="n">
         <f aca="false">SUM(W4,W7,W10,W13,W16,W19,W22,W25,W28,W31,W34,W37,W40,,W43,W46,W49,W52)</f>
         <v>0</v>
       </c>
-      <c r="X55" s="13" t="n">
+      <c r="X55" s="12" t="n">
         <f aca="false">SUM(X4,X7,X10,X13,X16,X19,X22,X25,X28,X31,X34,X37,X40,,X43,X46,X49,X52)</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="13" t="n">
+      <c r="Y55" s="12" t="n">
         <f aca="false">SUM(Y4,Y7,Y10,Y13,Y16,Y19,Y22,Y25,Y28,Y31,Y34,Y37,Y40,,Y43,Y46,Y49,Y52)</f>
         <v>2</v>
       </c>
-      <c r="Z55" s="13" t="n">
+      <c r="Z55" s="12" t="n">
         <f aca="false">SUM(Z4,Z7,Z10,Z13,Z16,Z19,Z22,Z25,Z28,Z31,Z34,Z37,Z40,,Z43,Z46,Z49,Z52)</f>
         <v>1</v>
       </c>
-      <c r="AA55" s="13" t="n">
+      <c r="AA55" s="12" t="n">
         <f aca="false">SUM(AA4,AA7,AA10,AA13,AA16,AA19,AA22,AA25,AA28,AA31,AA34,AA37,AA40,,AA43,AA46,AA49,AA52)</f>
         <v>0</v>
       </c>
-      <c r="AB55" s="13" t="n">
+      <c r="AB55" s="12" t="n">
         <f aca="false">SUM(AB4,AB7,AB10,AB13,AB16,AB19,AB22,AB25,AB28,AB31,AB34,AB37,AB40,,AB43,AB46,AB49,AB52)</f>
         <v>0</v>
       </c>
-      <c r="AC55" s="13" t="n">
+      <c r="AC55" s="12" t="n">
         <f aca="false">SUM(AC4,AC7,AC10,AC13,AC16,AC19,AC22,AC25,AC28,AC31,AC34,AC37,AC40,,AC43,AC46,AC49,AC52)</f>
         <v>1</v>
       </c>
-      <c r="AD55" s="13" t="n">
+      <c r="AD55" s="12" t="n">
         <f aca="false">SUM(AD4,AD7,AD10,AD13,AD16,AD19,AD22,AD25,AD28,AD31,AD34,AD37,AD40,,AD43,AD46,AD49,AD52)</f>
         <v>1</v>
       </c>
-      <c r="AE55" s="13" t="n">
+      <c r="AE55" s="12" t="n">
         <f aca="false">SUM(AE4,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AE28,AE31,AE34,AE37,AE40,,AE43,AE46,AE49,AE52)</f>
         <v>2</v>
       </c>
-      <c r="AF55" s="13" t="n">
+      <c r="AF55" s="12" t="n">
         <f aca="false">SUM(AF4,AF7,AF10,AF13,AF16,AF19,AF22,AF25,AF28,AF31,AF34,AF37,AF40,,AF43,AF46,AF49,AF52)</f>
         <v>0</v>
       </c>
-      <c r="AG55" s="13" t="n">
+      <c r="AG55" s="12" t="n">
         <f aca="false">SUM(AG4,AG7,AG10,AG13,AG16,AG19,AG22,AG25,AG28,AG31,AG34,AG37,AG40,,AG43,AG46,AG49,AG52)</f>
         <v>0</v>
       </c>
-      <c r="AH55" s="13" t="n">
+      <c r="AH55" s="12" t="n">
         <f aca="false">SUM(AH4,AH7,AH10,AH13,AH16,AH19,AH22,AH25,AH28,AH31,AH34,AH37,AH40,,AH43,AH46,AH49,AH52)</f>
         <v>2</v>
       </c>
-      <c r="AI55" s="13" t="n">
+      <c r="AI55" s="12" t="n">
         <f aca="false">SUM(AI4,AI7,AI10,AI13,AI16,AI19,AI22,AI25,AI28,AI31,AI34,AI37,AI40,,AI43,AI46,AI49,AI52)</f>
         <v>2</v>
       </c>
-      <c r="AJ55" s="13" t="n">
+      <c r="AJ55" s="12" t="n">
         <f aca="false">SUM(AJ4,AJ7,AJ10,AJ13,AJ16,AJ19,AJ22,AJ25,AJ28,AJ31,AJ34,AJ37,AJ40,,AJ43,AJ46,AJ49,AJ52)</f>
         <v>2</v>
       </c>
-      <c r="AK55" s="13" t="n">
+      <c r="AK55" s="12" t="n">
         <f aca="false">SUM(AK4,AK7,AK10,AK13,AK16,AK19,AK22,AK25,AK28,AK31,AK34,AK37,AK40,,AK43,AK46,AK49,AK52)</f>
         <v>1</v>
       </c>
-      <c r="AL55" s="13" t="n">
+      <c r="AL55" s="12" t="n">
         <f aca="false">SUM(AL4,AL7,AL10,AL13,AL16,AL19,AL22,AL25,AL28,AL31,AL34,AL37,AL40,,AL43,AL46,AL49,AL52)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="13" t="n">
+      <c r="AM55" s="12" t="n">
         <f aca="false">SUM(AM4,AM7,AM10,AM13,AM16,AM19,AM22,AM25,AM28,AM31,AM34,AM37,AM40,,AM43,AM46,AM49,AM52)</f>
         <v>17</v>
       </c>

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -402,14 +402,14 @@
   <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AI1" activeCellId="0" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="AM53" activeCellId="0" sqref="AM53"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="AM3" activeCellId="0" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -2259,11 +2259,11 @@
         <v>1</v>
       </c>
       <c r="AM15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN15" s="0" t="n">
         <f aca="false">SUM(C15:AM15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,11 +7117,11 @@
       </c>
       <c r="AM54" s="0" t="n">
         <f aca="false">SUM(AM3,AM6,AM9,AM12,AM15,AM18,AM21,AM24,AM27,AM30,AM33,AM36,AM39,,AM42,AM45,AM48,AM51)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN54" s="0" t="n">
         <f aca="false">SUM(AN3,AN6,AN9,AN12,AN15,AN18,AN21,AN24,AN27,AN30,AN33,AN36,AN39,,AN42,AN45,AN48,AN51)</f>
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -402,14 +402,14 @@
   <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AI1" activeCellId="0" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="AM3" activeCellId="0" sqref="AM3"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="AO61" activeCellId="0" sqref="AO61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -660,11 +660,11 @@
         <v>78</v>
       </c>
       <c r="AM2" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN2" s="7" t="n">
         <f aca="false">SUM(C2:AM2)</f>
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,11 +1029,11 @@
         <v>20</v>
       </c>
       <c r="AM5" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN5" s="7" t="n">
         <f aca="false">SUM(C5:AM5)</f>
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,11 +5826,11 @@
         <v>7</v>
       </c>
       <c r="AM44" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AN44" s="7" t="n">
         <f aca="false">SUM(C44:AM44)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,12 +6563,12 @@
       <c r="AL50" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AM50" s="19" t="s">
+      <c r="AM50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AN50" s="7" t="n">
         <f aca="false">SUM(C50:AM50)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,11 +6970,11 @@
       </c>
       <c r="AM53" s="20" t="n">
         <f aca="false">SUM(AM2,AM5,AM8,AM11,AM14,AM17,AM20,AM23,AM26,AM29,AM32,AM35,AM38,,AM41,AM44,AM47,AM50)</f>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AN53" s="7" t="n">
         <f aca="false">SUM(AN2,AN5,AN8,AN11,AN14,AN17,AN20,AN23,AN26,AN29,AN32,AN35,AN38,,AN41,AN44,AN47,AN50)</f>
-        <v>1615</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/coronavirus.xlsx
+++ b/coronavirus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="25">
   <si>
     <t xml:space="preserve">regions</t>
   </si>
@@ -402,14 +402,14 @@
   <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AI1" activeCellId="0" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="AN19" activeCellId="0" sqref="AN19"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="AQ34" activeCellId="0" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
@@ -666,11 +666,11 @@
         <v>11</v>
       </c>
       <c r="AN2" s="6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AO2" s="7" t="n">
         <f aca="false">SUM(C2:AN2)</f>
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,12 +917,12 @@
       <c r="AM4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" s="12" t="s">
-        <v>6</v>
+      <c r="AN4" s="12" t="n">
+        <v>2</v>
       </c>
       <c r="AO4" s="12" t="n">
         <f aca="false">SUM(C4:AN4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,12 +1799,12 @@
       <c r="AM11" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AN11" s="18" t="s">
-        <v>6</v>
+      <c r="AN11" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="AO11" s="7" t="n">
         <f aca="false">SUM(C11:AN11)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,11 +2556,11 @@
         <v>12</v>
       </c>
       <c r="AN17" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AO17" s="7" t="n">
         <f aca="false">SUM(C17:AN17)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,12 +3311,12 @@
       <c r="AM23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" s="18" t="s">
-        <v>6</v>
+      <c r="AN23" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AO23" s="7" t="n">
         <f aca="false">SUM(C23:AN23)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,11 +5580,11 @@
         <v>0</v>
       </c>
       <c r="AN41" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO41" s="7" t="n">
         <f aca="false">SUM(C41:AN41)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,12 +5957,12 @@
       <c r="AM44" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AN44" s="18" t="s">
-        <v>6</v>
+      <c r="AN44" s="6" t="n">
+        <v>16</v>
       </c>
       <c r="AO44" s="7" t="n">
         <f aca="false">SUM(C44:AN44)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,12 +6335,12 @@
       <c r="AM47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AN47" s="18" t="s">
-        <v>6</v>
+      <c r="AN47" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="AO47" s="7" t="n">
         <f aca="false">SUM(C47:AN47)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,11 +7130,11 @@
       </c>
       <c r="AN53" s="20" t="n">
         <f aca="false">SUM(AN2,AN5,AN8,AN11,AN14,AN17,AN20,AN23,AN26,AN29,AN32,AN35,AN38,,AN41,AN44,AN47,AN50)</f>
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="AO53" s="7" t="n">
         <f aca="false">SUM(AO2,AO5,AO8,AO11,AO14,AO17,AO20,AO23,AO26,AO29,AO32,AO35,AO38,,AO41,AO44,AO47,AO50)</f>
-        <v>1676</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="AN55" s="12" t="n">
         <f aca="false">SUM(AN4,AN7,AN10,AN13,AN16,AN19,AN22,AN25,AN28,AN31,AN34,AN37,AN40,,AN43,AN46,AN49,AN52)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO55" s="12" t="n">
         <f aca="false">SUM(AO4,AO7,AO10,AO13,AO16,AO19,AO22,AO25,AO28,AO31,AO34,AO37,AO40,,AO43,AO46,AO49,AO52)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
